--- a/Kashubians-Data.xlsx
+++ b/Kashubians-Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\GitHub\maps-of-ethnicities-in-poland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9204C585-29E9-42BC-84EF-8E833B3B0915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B7E1C4-8362-4238-89E0-20BBBA91F522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{CFA6B08F-36EB-4DB1-93D5-3226BC035D86}"/>
+    <workbookView xWindow="38280" yWindow="2355" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CFA6B08F-36EB-4DB1-93D5-3226BC035D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Pomorskie" sheetId="1" r:id="rId1"/>
+    <sheet name="Zachodniopomorskie" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="240">
   <si>
     <t>Gmina</t>
   </si>
@@ -417,6 +418,345 @@
   </si>
   <si>
     <t>Słupsk</t>
+  </si>
+  <si>
+    <t>Choszczno</t>
+  </si>
+  <si>
+    <t>Bierzwnik</t>
+  </si>
+  <si>
+    <t>Tychowo</t>
+  </si>
+  <si>
+    <t>Karlino</t>
+  </si>
+  <si>
+    <t>Białogard (W)</t>
+  </si>
+  <si>
+    <t>Białogard (M)</t>
+  </si>
+  <si>
+    <t>Drawno</t>
+  </si>
+  <si>
+    <t>Krzęcin</t>
+  </si>
+  <si>
+    <t>Pełczyce</t>
+  </si>
+  <si>
+    <t>Recz</t>
+  </si>
+  <si>
+    <t>Czaplinek</t>
+  </si>
+  <si>
+    <t>Drawsko Pomorskie</t>
+  </si>
+  <si>
+    <t>Maszewo</t>
+  </si>
+  <si>
+    <t>Goleniów</t>
+  </si>
+  <si>
+    <t>Złocieniec</t>
+  </si>
+  <si>
+    <t>Wierzchowo</t>
+  </si>
+  <si>
+    <t>Kalisz Pomorski</t>
+  </si>
+  <si>
+    <t>Gryfice</t>
+  </si>
+  <si>
+    <t>Brojce</t>
+  </si>
+  <si>
+    <t>Stepnica</t>
+  </si>
+  <si>
+    <t>Przybiernów</t>
+  </si>
+  <si>
+    <t>Osina</t>
+  </si>
+  <si>
+    <t>Nowogard</t>
+  </si>
+  <si>
+    <t>Banie</t>
+  </si>
+  <si>
+    <t>Trzebiatów</t>
+  </si>
+  <si>
+    <t>Rewal</t>
+  </si>
+  <si>
+    <t>Płoty</t>
+  </si>
+  <si>
+    <t>Karnice</t>
+  </si>
+  <si>
+    <t>Moryń</t>
+  </si>
+  <si>
+    <t>Mieszkowice</t>
+  </si>
+  <si>
+    <t>Gryfino</t>
+  </si>
+  <si>
+    <t>Chojna</t>
+  </si>
+  <si>
+    <t>Cedynia</t>
+  </si>
+  <si>
+    <t>Międzyzdroje</t>
+  </si>
+  <si>
+    <t>Kamień Pomorski</t>
+  </si>
+  <si>
+    <t>Golczewo</t>
+  </si>
+  <si>
+    <t>Dziwnów</t>
+  </si>
+  <si>
+    <t>Widuchowa</t>
+  </si>
+  <si>
+    <t>Trzcińsko-Zdrój</t>
+  </si>
+  <si>
+    <t>Stare Czarnowo</t>
+  </si>
+  <si>
+    <t>Kołobrzeg (M)</t>
+  </si>
+  <si>
+    <t>Wolin</t>
+  </si>
+  <si>
+    <t>Świerzno</t>
+  </si>
+  <si>
+    <t>Siemyśl</t>
+  </si>
+  <si>
+    <t>Rymań</t>
+  </si>
+  <si>
+    <t>Kołobrzeg (W)</t>
+  </si>
+  <si>
+    <t>Gościno</t>
+  </si>
+  <si>
+    <t>Dygowo</t>
+  </si>
+  <si>
+    <t>Manowo</t>
+  </si>
+  <si>
+    <t>Bobolice</t>
+  </si>
+  <si>
+    <t>Biesiekierz</t>
+  </si>
+  <si>
+    <t>Będzino</t>
+  </si>
+  <si>
+    <t>Ustronie Morskie</t>
+  </si>
+  <si>
+    <t>Barlinek</t>
+  </si>
+  <si>
+    <t>Świeszyno</t>
+  </si>
+  <si>
+    <t>Sianów</t>
+  </si>
+  <si>
+    <t>Polanów</t>
+  </si>
+  <si>
+    <t>Mielno</t>
+  </si>
+  <si>
+    <t>Nowogródek Pomorski</t>
+  </si>
+  <si>
+    <t>Myślibórz</t>
+  </si>
+  <si>
+    <t>Dębno</t>
+  </si>
+  <si>
+    <t>Boleszkowice</t>
+  </si>
+  <si>
+    <t>Dobra (p. policki)</t>
+  </si>
+  <si>
+    <t>Kołbaskowo</t>
+  </si>
+  <si>
+    <t>Nowe Warpno</t>
+  </si>
+  <si>
+    <t>Lipiany</t>
+  </si>
+  <si>
+    <t>Kozielice</t>
+  </si>
+  <si>
+    <t>Bielice</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Warnice</t>
+  </si>
+  <si>
+    <t>Pyrzyce</t>
+  </si>
+  <si>
+    <t>Przelewice</t>
+  </si>
+  <si>
+    <t>Darłowo (M)</t>
+  </si>
+  <si>
+    <t>Darłowo (W)</t>
+  </si>
+  <si>
+    <t>Malechowo</t>
+  </si>
+  <si>
+    <t>Postomino</t>
+  </si>
+  <si>
+    <t>Sławno (W)</t>
+  </si>
+  <si>
+    <t>Sławno (M)</t>
+  </si>
+  <si>
+    <t>Stargard (M)</t>
+  </si>
+  <si>
+    <t>Marianowo</t>
+  </si>
+  <si>
+    <t>Kobylanka</t>
+  </si>
+  <si>
+    <t>Ińsko</t>
+  </si>
+  <si>
+    <t>Dolice</t>
+  </si>
+  <si>
+    <t>Dobrzany</t>
+  </si>
+  <si>
+    <t>Chociwel</t>
+  </si>
+  <si>
+    <t>Szczecinek (M)</t>
+  </si>
+  <si>
+    <t>Suchań</t>
+  </si>
+  <si>
+    <t>Stargard (W)</t>
+  </si>
+  <si>
+    <t>Stara Dąbrowa</t>
+  </si>
+  <si>
+    <t>Szczecinek (W)</t>
+  </si>
+  <si>
+    <t>Grzmiąca</t>
+  </si>
+  <si>
+    <t>Borne Sulinowo</t>
+  </si>
+  <si>
+    <t>Biały Bór</t>
+  </si>
+  <si>
+    <t>Barwice</t>
+  </si>
+  <si>
+    <t>Sławoborze</t>
+  </si>
+  <si>
+    <t>Rąbino</t>
+  </si>
+  <si>
+    <t>Połczyn-Zdrój</t>
+  </si>
+  <si>
+    <t>Brzeżno</t>
+  </si>
+  <si>
+    <t>Świdwin (M)</t>
+  </si>
+  <si>
+    <t>Świdwin (W)</t>
+  </si>
+  <si>
+    <t>Wałcz (W)</t>
+  </si>
+  <si>
+    <t>Tuczno</t>
+  </si>
+  <si>
+    <t>Mirosławiec</t>
+  </si>
+  <si>
+    <t>Człopa</t>
+  </si>
+  <si>
+    <t>Wałcz (M)</t>
+  </si>
+  <si>
+    <t>Koszalin</t>
+  </si>
+  <si>
+    <t>Węgorzyno</t>
+  </si>
+  <si>
+    <t>Resko</t>
+  </si>
+  <si>
+    <t>Radowo Małe</t>
+  </si>
+  <si>
+    <t>Łobez</t>
+  </si>
+  <si>
+    <t>Dobra (p. łobeski)</t>
+  </si>
+  <si>
+    <t>Szczecin</t>
+  </si>
+  <si>
+    <t>Świnoujście</t>
   </si>
 </sst>
 </file>
@@ -558,7 +898,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,6 +909,7 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="60% — akcent 4" xfId="2" builtinId="44"/>
@@ -949,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C5A08-089F-4749-BF5E-433BD64A0A3F}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L5:L6"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection sqref="A1:D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,4 +3044,1681 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6153556A-5989-4F1E-A11A-C1D39E5F605F}">
+  <dimension ref="A1:D124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:D114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>23142</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7357</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8691</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6384</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4448</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20578</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4684</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3393</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7385</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5125</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11333</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16748</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6932</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4109</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15636</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>36994</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8546</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>23831</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2935</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4880</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4777</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3510</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23194</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3814</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8338</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3674</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>15307</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5926</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4085</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>13392</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>30755</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6724</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4166</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3706</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4946</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5121</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3710</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5592</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>13806</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6165</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4047</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>11792</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="2">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44340</v>
+      </c>
+      <c r="D44" s="3">
+        <v>4.9616599007668016E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5419</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5229</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>11289</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3737</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3928</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3753</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="2">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2">
+        <v>8525</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7414</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>8443</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>6825</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4829</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>8296</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>13974</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="2">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2">
+        <v>8091</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>18730</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2803</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>19854</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>19023</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3354</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="2">
+        <v>13</v>
+      </c>
+      <c r="C64" s="2">
+        <v>27368</v>
+      </c>
+      <c r="D64" s="3">
+        <v>4.7500730780473545E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="2">
+        <v>21</v>
+      </c>
+      <c r="C65" s="2">
+        <v>14362</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.1462191895279209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1563</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="2">
+        <v>18</v>
+      </c>
+      <c r="C67" s="2">
+        <v>39698</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2990</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2446</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>5623</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>4644</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>18486</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>3183</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="2">
+        <v>24</v>
+      </c>
+      <c r="C74" s="2">
+        <v>13081</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>12028</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>7670</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>6076</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>6833</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>8505</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" s="2">
+        <v>18</v>
+      </c>
+      <c r="C80" s="2">
+        <v>67348</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>5587</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>4618</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>7307</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3195</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2">
+        <v>6109</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2934</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2">
+        <v>3581</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2">
+        <v>14333</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2">
+        <v>4126</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B90" s="2">
+        <v>32</v>
+      </c>
+      <c r="C90" s="2">
+        <v>38446</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2">
+        <v>8042</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>4978</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" s="2">
+        <v>10</v>
+      </c>
+      <c r="C93" s="2">
+        <v>9461</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>4463</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2">
+        <v>8917</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2">
+        <v>14937</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2652</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2">
+        <v>14067</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>3380</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2">
+        <v>3925</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>5484</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>24167</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2">
+        <v>4650</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2">
+        <v>5390</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2">
+        <v>4587</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0</v>
+      </c>
+      <c r="C106" s="2">
+        <v>12223</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+      <c r="C107" s="2">
+        <v>4016</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2">
+        <v>13240</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2">
+        <v>3317</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2">
+        <v>7453</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2">
+        <v>6438</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B112" s="2">
+        <v>151</v>
+      </c>
+      <c r="C112" s="2">
+        <v>105883</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" s="2">
+        <v>161</v>
+      </c>
+      <c r="C113" s="2">
+        <v>396168</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B114" s="2">
+        <v>27</v>
+      </c>
+      <c r="C114" s="2">
+        <v>40204</v>
+      </c>
+      <c r="D114" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Kashubians-Data.xlsx
+++ b/Kashubians-Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\GitHub\maps-of-ethnicities-in-poland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B7E1C4-8362-4238-89E0-20BBBA91F522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02664AD0-6F7E-464C-9F97-C283FE581143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2355" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CFA6B08F-36EB-4DB1-93D5-3226BC035D86}"/>
+    <workbookView xWindow="38280" yWindow="2355" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CFA6B08F-36EB-4DB1-93D5-3226BC035D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Pomorskie" sheetId="1" r:id="rId1"/>
     <sheet name="Zachodniopomorskie" sheetId="2" r:id="rId2"/>
+    <sheet name="Kujawsko-Pomorskie" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="383">
   <si>
     <t>Gmina</t>
   </si>
@@ -757,6 +758,435 @@
   </si>
   <si>
     <t>Świnoujście</t>
+  </si>
+  <si>
+    <t>Raciążek</t>
+  </si>
+  <si>
+    <t>Koneck</t>
+  </si>
+  <si>
+    <t>Bądkowo</t>
+  </si>
+  <si>
+    <t>Aleksandrów Kujawski (W)</t>
+  </si>
+  <si>
+    <t>Nieszawa</t>
+  </si>
+  <si>
+    <t>Ciechocinek</t>
+  </si>
+  <si>
+    <t>Aleksandrów Kujawski (M)</t>
+  </si>
+  <si>
+    <t>Brzozie</t>
+  </si>
+  <si>
+    <t>Brodnica (W)</t>
+  </si>
+  <si>
+    <t>Bobrowo</t>
+  </si>
+  <si>
+    <t>Brodnica (M)</t>
+  </si>
+  <si>
+    <t>Zakrzewo</t>
+  </si>
+  <si>
+    <t>Waganiec</t>
+  </si>
+  <si>
+    <t>Zbiczno</t>
+  </si>
+  <si>
+    <t>Świedziebnia</t>
+  </si>
+  <si>
+    <t>Jabłonowo Pomorskie</t>
+  </si>
+  <si>
+    <t>Bartniczka</t>
+  </si>
+  <si>
+    <t>Górzno</t>
+  </si>
+  <si>
+    <t>Białe Błota</t>
+  </si>
+  <si>
+    <t>Dąbrowa Chełmińska</t>
+  </si>
+  <si>
+    <t>Dobrcz</t>
+  </si>
+  <si>
+    <t>Kornowo</t>
+  </si>
+  <si>
+    <t>Nowa Wielka Wieś</t>
+  </si>
+  <si>
+    <t>Osielsko</t>
+  </si>
+  <si>
+    <t>Lisewo</t>
+  </si>
+  <si>
+    <t>Kijewo Królewskie</t>
+  </si>
+  <si>
+    <t>Chełmno (M)</t>
+  </si>
+  <si>
+    <t>Chełmno (W)</t>
+  </si>
+  <si>
+    <t>Solec Kujawski</t>
+  </si>
+  <si>
+    <t>Sicienko</t>
+  </si>
+  <si>
+    <t>Kowalewo Pomorskie</t>
+  </si>
+  <si>
+    <t>Golub-Dobrzyń (W)</t>
+  </si>
+  <si>
+    <t>Ciechocin</t>
+  </si>
+  <si>
+    <t>Golub-Dobrzyń (M)</t>
+  </si>
+  <si>
+    <t>Unisław</t>
+  </si>
+  <si>
+    <t>Stolno</t>
+  </si>
+  <si>
+    <t>Papowo Biskupie</t>
+  </si>
+  <si>
+    <t>Świecie nad Osą</t>
+  </si>
+  <si>
+    <t>Rogoźno</t>
+  </si>
+  <si>
+    <t>Radzyń Chełmiński</t>
+  </si>
+  <si>
+    <t>Łasin</t>
+  </si>
+  <si>
+    <t>Gruta</t>
+  </si>
+  <si>
+    <t>Grudziądz (W)</t>
+  </si>
+  <si>
+    <t>Zbójno</t>
+  </si>
+  <si>
+    <t>Radomin</t>
+  </si>
+  <si>
+    <t>Inowrocław (W)</t>
+  </si>
+  <si>
+    <t>Gniewkowo</t>
+  </si>
+  <si>
+    <t>Dąbrowa Biskupia</t>
+  </si>
+  <si>
+    <t>Inowrocław (M)</t>
+  </si>
+  <si>
+    <t>Lipno (M)</t>
+  </si>
+  <si>
+    <t>Złotniki Kujawskie</t>
+  </si>
+  <si>
+    <t>Rojewo</t>
+  </si>
+  <si>
+    <t>Pakość</t>
+  </si>
+  <si>
+    <t>Kruszwica</t>
+  </si>
+  <si>
+    <t>Janikowo</t>
+  </si>
+  <si>
+    <t>Tłuchowo</t>
+  </si>
+  <si>
+    <t>Skępe</t>
+  </si>
+  <si>
+    <t>Lipno (W)</t>
+  </si>
+  <si>
+    <t>Kikół</t>
+  </si>
+  <si>
+    <t>Dobrzyń nad Wisłą</t>
+  </si>
+  <si>
+    <t>Chrostkowo</t>
+  </si>
+  <si>
+    <t>Bobrowniki</t>
+  </si>
+  <si>
+    <t>Kcynia</t>
+  </si>
+  <si>
+    <t>Strzelno</t>
+  </si>
+  <si>
+    <t>Mogilno</t>
+  </si>
+  <si>
+    <t>Jeziora Wielkie</t>
+  </si>
+  <si>
+    <t>Dąbrowa</t>
+  </si>
+  <si>
+    <t>Wielgie</t>
+  </si>
+  <si>
+    <t>Mrocza</t>
+  </si>
+  <si>
+    <t>Dobre</t>
+  </si>
+  <si>
+    <t>Bytoń</t>
+  </si>
+  <si>
+    <t>Radziejów (M)</t>
+  </si>
+  <si>
+    <t>Szubin</t>
+  </si>
+  <si>
+    <t>Sadki</t>
+  </si>
+  <si>
+    <t>Nakło nad Notecią</t>
+  </si>
+  <si>
+    <t>Rypin (W)</t>
+  </si>
+  <si>
+    <t>Brzuze</t>
+  </si>
+  <si>
+    <t>Rypin (M)</t>
+  </si>
+  <si>
+    <t>Topólka</t>
+  </si>
+  <si>
+    <t>Radziejów (W)</t>
+  </si>
+  <si>
+    <t>Piotrków Kujawski</t>
+  </si>
+  <si>
+    <t>Osięciny</t>
+  </si>
+  <si>
+    <t>Więcbork</t>
+  </si>
+  <si>
+    <t>Sośno</t>
+  </si>
+  <si>
+    <t>Sępólno Krajeńskie</t>
+  </si>
+  <si>
+    <t>Kamień Krajeński</t>
+  </si>
+  <si>
+    <t>Wąpielsk</t>
+  </si>
+  <si>
+    <t>Skrwilno</t>
+  </si>
+  <si>
+    <t>Nowe</t>
+  </si>
+  <si>
+    <t>Lniano</t>
+  </si>
+  <si>
+    <t>Jeżewo</t>
+  </si>
+  <si>
+    <t>Drzycim</t>
+  </si>
+  <si>
+    <t>Dragacz</t>
+  </si>
+  <si>
+    <t>Bukowiec</t>
+  </si>
+  <si>
+    <t>Warlubie</t>
+  </si>
+  <si>
+    <t>Świekatowo</t>
+  </si>
+  <si>
+    <t>Świecie</t>
+  </si>
+  <si>
+    <t>Pruszcz</t>
+  </si>
+  <si>
+    <t>Osie</t>
+  </si>
+  <si>
+    <t>Łubianka</t>
+  </si>
+  <si>
+    <t>Lubicz</t>
+  </si>
+  <si>
+    <t>Czernikowo</t>
+  </si>
+  <si>
+    <t>Chełmża (M)</t>
+  </si>
+  <si>
+    <t>Chełmża (W)</t>
+  </si>
+  <si>
+    <t>Zławieś Wielka</t>
+  </si>
+  <si>
+    <t>Wielka Nieszawka</t>
+  </si>
+  <si>
+    <t>Oborowo</t>
+  </si>
+  <si>
+    <t>Łysomice</t>
+  </si>
+  <si>
+    <t>Tuchola</t>
+  </si>
+  <si>
+    <t>Śliwice</t>
+  </si>
+  <si>
+    <t>Lubiewo</t>
+  </si>
+  <si>
+    <t>Kęsowo</t>
+  </si>
+  <si>
+    <t>Gostycyn</t>
+  </si>
+  <si>
+    <t>Cekcyn</t>
+  </si>
+  <si>
+    <t>Brześć Kujawski</t>
+  </si>
+  <si>
+    <t>Boniewo</t>
+  </si>
+  <si>
+    <t>Baruchowo</t>
+  </si>
+  <si>
+    <t>Ryńsk</t>
+  </si>
+  <si>
+    <t>Płużnica</t>
+  </si>
+  <si>
+    <t>Książki</t>
+  </si>
+  <si>
+    <t>Dębowa Łąka</t>
+  </si>
+  <si>
+    <t>Wąbrzeźno</t>
+  </si>
+  <si>
+    <t>Lubień Kujawski</t>
+  </si>
+  <si>
+    <t>Lubanie</t>
+  </si>
+  <si>
+    <t>Kowal (W)</t>
+  </si>
+  <si>
+    <t>Izbica Kujawska</t>
+  </si>
+  <si>
+    <t>Fabianki</t>
+  </si>
+  <si>
+    <t>Chodecz</t>
+  </si>
+  <si>
+    <t>Choceń</t>
+  </si>
+  <si>
+    <t>Kowal (M)</t>
+  </si>
+  <si>
+    <t>Łabiszyn</t>
+  </si>
+  <si>
+    <t>Janowiec Wielkopolski</t>
+  </si>
+  <si>
+    <t>Gąsawa</t>
+  </si>
+  <si>
+    <t>Barcin</t>
+  </si>
+  <si>
+    <t>Włocławek (W)</t>
+  </si>
+  <si>
+    <t>Lubraniec</t>
+  </si>
+  <si>
+    <t>Bydgoszcz</t>
+  </si>
+  <si>
+    <t>Żnin</t>
+  </si>
+  <si>
+    <t>Grudziądz (M)</t>
+  </si>
+  <si>
+    <t>Toruń</t>
+  </si>
+  <si>
+    <t>Włocławek (M)</t>
+  </si>
+  <si>
+    <t>Rogowo (p. żniński)</t>
+  </si>
+  <si>
+    <t>Rogowo (p. rypiński)</t>
   </si>
 </sst>
 </file>
@@ -898,7 +1328,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,7 +1339,6 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="60% — akcent 4" xfId="2" builtinId="44"/>
@@ -3048,10 +3477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6153556A-5989-4F1E-A11A-C1D39E5F605F}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4658,65 +5087,2056 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878FD988-E1D1-4CE2-9658-83E885AE1F53}">
+  <dimension ref="A1:D145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>11719</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10415</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1770</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11948</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4141</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3132</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3230</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4495</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3404</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>28865</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6112</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9009</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3704</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3800</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4639</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8564</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3842</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4977</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4824</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="2">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2">
+        <v>24483</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8435</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>12179</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23612</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10143</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16630</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10445</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>16609</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>18837</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5998</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4335</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5015</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4064</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5153</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6750</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>11722</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3915</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8843</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>11262</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4005</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4306</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>13175</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6125</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7536</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4522</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4075</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3861</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" s="2">
+        <v>18</v>
+      </c>
+      <c r="C48" s="2">
+        <v>69576</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4989</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>13925</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
+        <v>11998</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>12622</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>18311</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>9344</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4505</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>8895</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>13752</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3026</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2833</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>7348</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>6769</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>11576</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>7193</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4487</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <v>6772</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4431</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4650</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>24207</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>11097</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>12498</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>8941</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>30445</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>6973</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
+        <v>24909</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>5253</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>3417</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>5066</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>7434</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>8865</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4318</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>4582</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>15832</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>4967</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2">
+        <v>4652</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2">
+        <v>7276</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5538</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2">
+        <v>3737</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B88" s="2">
+        <v>12</v>
+      </c>
+      <c r="C88" s="2">
+        <v>6671</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" s="2">
+        <v>15</v>
+      </c>
+      <c r="C89" s="2">
+        <v>15241</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2">
+        <v>4663</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2">
+        <v>13002</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>4955</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2">
+        <v>6963</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>4823</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2">
+        <v>7815</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2">
+        <v>4125</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2">
+        <v>9873</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2">
+        <v>5498</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>9349</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B100" s="2">
+        <v>15</v>
+      </c>
+      <c r="C100" s="2">
+        <v>33226</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3500</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>6190</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2">
+        <v>14045</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2">
+        <v>9626</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2">
+        <v>8955</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B106" s="2">
+        <v>12</v>
+      </c>
+      <c r="C106" s="2">
+        <v>20956</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+      <c r="C107" s="2">
+        <v>7654</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2">
+        <v>10605</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2">
+        <v>19251</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2">
+        <v>5075</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2">
+        <v>15496</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B112" s="2">
+        <v>10</v>
+      </c>
+      <c r="C112" s="2">
+        <v>6749</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2">
+        <v>4992</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0</v>
+      </c>
+      <c r="C114" s="2">
+        <v>4221</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0</v>
+      </c>
+      <c r="C115" s="2">
+        <v>5842</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0</v>
+      </c>
+      <c r="C116" s="2">
+        <v>5568</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B117" s="2">
+        <v>59</v>
+      </c>
+      <c r="C117" s="2">
+        <v>20008</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2">
+        <v>13317</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0</v>
+      </c>
+      <c r="C119" s="2">
+        <v>2988</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2">
+        <v>3884</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2">
+        <v>4578</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0</v>
+      </c>
+      <c r="C122" s="2">
+        <v>8353</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0</v>
+      </c>
+      <c r="C123" s="2">
+        <v>3386</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0</v>
+      </c>
+      <c r="C124" s="2">
+        <v>3353</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0</v>
+      </c>
+      <c r="C125" s="2">
+        <v>3240</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0</v>
+      </c>
+      <c r="C126" s="2">
+        <v>11065</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0</v>
+      </c>
+      <c r="C127" s="2">
+        <v>7798</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0</v>
+      </c>
+      <c r="C128" s="2">
+        <v>5644</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0</v>
+      </c>
+      <c r="C129" s="2">
+        <v>10082</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0</v>
+      </c>
+      <c r="C130" s="2">
+        <v>7356</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0</v>
+      </c>
+      <c r="C131" s="2">
+        <v>3897</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0</v>
+      </c>
+      <c r="C132" s="2">
+        <v>4419</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0</v>
+      </c>
+      <c r="C133" s="2">
+        <v>6961</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0</v>
+      </c>
+      <c r="C134" s="2">
+        <v>8956</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0</v>
+      </c>
+      <c r="C135" s="2">
+        <v>7316</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0</v>
+      </c>
+      <c r="C136" s="2">
+        <v>14391</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2">
+        <v>5008</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0</v>
+      </c>
+      <c r="C138" s="2">
+        <v>8644</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0</v>
+      </c>
+      <c r="C139" s="2">
+        <v>10473</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0</v>
+      </c>
+      <c r="C140" s="2">
+        <v>6716</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0</v>
+      </c>
+      <c r="C141" s="2">
+        <v>23331</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B142" s="2">
+        <v>198</v>
+      </c>
+      <c r="C142" s="2">
+        <v>337666</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B143" s="2">
+        <v>33</v>
+      </c>
+      <c r="C143" s="2">
+        <v>90890</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B144" s="2">
+        <v>159</v>
+      </c>
+      <c r="C144" s="2">
+        <v>198273</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B145" s="2">
+        <v>12</v>
+      </c>
+      <c r="C145" s="2">
+        <v>104705</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
